--- a/data/publications/orcid/export_to_manual/Uniwersytet_Łódzki_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Łódzki_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,3830 +436,4144 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Mariusz Cieślak</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8307-7262</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Mental health and the perceived consequences of the SARS-CoV-2</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2021-03</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne, 1, 73-96</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Mariusz_Cieślak_3</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Mariusz Cieślak</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8307-7262</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Satysfakcja seksualna i jej znaczenie w bliskich związkach emocjonalnych</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2020-12-17</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne, 4, 389-405</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mariusz_Cieślak_4</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Mariusz Cieślak</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8307-7262</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Maternal–Infant Bonding and Its Relationships with Maternal Depressive Symptoms, Stress and Anxiety in the Early Postpartum Period in a Polish Sample</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2020-07-28</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mariusz_Cieślak_5</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Mariusz Cieślak</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8307-7262</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Twardość psychiczna i wsparcie społeczne a wzrost pourazowy u chorych z nowotworem – doniesienie wstępne</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mariusz_Cieślak_6</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Maria Finogenow</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0358-4465</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Cognitive behavioural therapy for insomnia and possibilities of its use among the elderly,Terapia poznawczo-behawioralna bezsennosci i mozliwosci jej zastosowania u osób starszych</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Psychoterapia</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Maria_Finogenow_1</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Mateusz Adam Hauk</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1202-9022</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Nowe podejście do zarządzania szkoleniami w organizacjach biznesowych</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Zeszyty Naukowe Wyższej Szkoły Humanitas</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Mateusz_Adam_Hauk_1</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Mateusz Adam Hauk</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1202-9022</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Projektowanie pracy – potrzeba redefinicji podejścia do problematyki „work – design”</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Bezpieczeństwo Pracy – Nauka i Praktyka</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Mateusz_Adam_Hauk_2</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Mateusz Adam Hauk</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1202-9022</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Emotional Satisfaction at Work and Sociodemographic Variables</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Edukacja Ekonomistów i Menedżerów : problemy, innowacje, projekty</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Mateusz_Adam_Hauk_3</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>19</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Mateusz Adam Hauk</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1202-9022</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Cechy pracy a zadowolenie z pracy.</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2018-12-21</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Acta Universitatis Lodziensis. Folia Psychologica</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Mateusz_Adam_Hauk_4</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>20</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Mateusz Adam Hauk</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1202-9022</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Grywalizacja w rekrutacji – pytania sytuacyjne w formie gry jako pomysł na urozmaicenie procesów selekcji kandydatów</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Zarządzanie zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Mateusz_Adam_Hauk_5</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>21</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Iwona Lidia Janicka</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1408-5354</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Communication of partners in intercultural marriages</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Iwona_Lidia_Janicka_1</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>22</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Iwona Lidia Janicka</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1408-5354</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Kwestionariusz Nadseksualizacji – polska adaptacja metody.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Seksuologia Polska,19,1-10</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Iwona_Lidia_Janicka_2</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>23</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Iwona Lidia Janicka</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1408-5354</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>No licence for love versus same-sex relationships – partner relations and interpersonal commitment</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Current Issues in Personality Psychology, 9(2), 101–113</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Iwona_Lidia_Janicka_3</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>24</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Iwona Lidia Janicka</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1408-5354</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t xml:space="preserve">Zaangażowanie małżeńskie partnerów religijnych. </t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio,1, 66-79.</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Iwona_Lidia_Janicka_4</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>25</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Iwona Lidia Janicka</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1408-5354</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Satysfakcja seksualna i jej znaczenie w bliskich zwiazkach emocjonalnych</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2020-12</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne, 4, 389-405</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Iwona_Lidia_Janicka_5</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>26</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Iwona Lidia Janicka</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1408-5354</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Can close romantic relationships last? The commitment of partners  in married and cohabitant couples</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2019-11-03</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Current Issues in Personality  Psychology, 7(3), 203–211</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Iwona_Lidia_Janicka_6</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>27</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Iwona Lidia Janicka</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1408-5354</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Oczekiwania młodych dorosłych a zaangażowanie w bliskich związkach emocjonalnych.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>. Psychological Journal, 24, 2, 397-404.</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Iwona_Lidia_Janicka_7</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>28</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Iwona Lidia Janicka</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1408-5354</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Zależność i wsparcie od partnera a więź matki z dzieckiem w okresie prenatalnym</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne, 1, 139-146.</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Iwona_Lidia_Janicka_8</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>29</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Iwona Lidia Janicka</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1408-5354</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Jakość i stabilność małżeństw dwóch karier</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Psychological Journal, 1, 35-42.</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Iwona_Lidia_Janicka_9</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Iwona Lidia Janicka</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1408-5354</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t xml:space="preserve">Kwestionariusz Zaangażowania Interpersonalnego </t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne,2, 205-218.</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Iwona_Lidia_Janicka_10</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>31</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Karolina Aleksandra Jarecka</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6577-4360</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Symptoms of hormonal changes in Polish men and women in the second half of life</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Health Psychology Report, 9(3), 252–263</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Karolina_Aleksandra_Jarecka_1</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>33</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Karolina Aleksandra Jarecka</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6577-4360</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Jakość związku a objawy menopauzalne u kobiet i andropauzalne u mężczyzn</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne,22(2), 219-241</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Karolina_Aleksandra_Jarecka_3</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>34</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Karolina Aleksandra Jarecka</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6577-4360</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t xml:space="preserve">Quality of the relationship and menopausal symptoms of menopausal women. </t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Health Psychology Report, 5(1), 55-66</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Karolina_Aleksandra_Jarecka_4</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>36</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Adrianna Kaczuba</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8605-7889</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Skala Przekonań Dorosłych Eurosierot (SPDE) – założenia teoretyczne i analiza właściwości psychometrycznych</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>POLSKIE FORUM PSYCHOLOGICZNE</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Adrianna_Kaczuba_2</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>38</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Adrianna Kaczuba</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8605-7889</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Oczekiwania młodych dorosłych a zaangażowanie w bliskich związkach emocjonalnych</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Adrianna_Kaczuba_4</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>43</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Magdalena Ewa Kobylarczyk-Kaczmarek</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7069-316X</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Children’s impact of Event Scale—CRIES-13</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2018-12</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Magdalena_Ewa_Kobylarczyk-Kaczmarek_5</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>50</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Ciąża i poród w czasach pandemii COVID-19: wybrane aspekty psychologiczne</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_3</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>51</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Obawy dotyczące psychologicznych i fizjologicznych aspektów ciąży, porodu i połogu u kobiet nieposiadających dzieci</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_4</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>55</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Depresja poporodowa matki i jej konsekwencje dla dziecka i rodziny = Maternal postpartum depression and its consequences for the child and family</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_8</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>56</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Kompleksowa terapia udrażniająca w leczeniu obrzęku limfatycznego u kobiet po mastektomii</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Fizjoterapia Polska</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_9</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>57</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Wybrane aspekty dobrostanu psychicznego uczniów na różnych etapach edukacji. Doniesienia wstępne</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Studia edukacyjne</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_10</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>58</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Assessment of physical endurance in students of the 1st and 2nd grade of secondary school = Ocena poziomu wydolności fizycznej u licealistów klas I i II</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Fizjoterapia Polska</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_11</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>60</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Karmienie piersią w miejscach publicznych w opinii kobiet = Women’s opinions about breastfeeding in public</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Hygeia Public Health</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_13</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>62</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Ocena poziomu wydolności fizycznej u licealistów klas I i II</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Fizjoterapia Polska</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_15</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>63</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Ocena poziomu wydolności fizycznej u licealistów klas I i II</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Fizjoterapia Polska</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_16</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>64</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Psychological Wellbeing in the Teaching Profession = Dobrostan psychologiczny w zawodzie nauczyciela</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Edukacja Dorosłych</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_17</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>66</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>The Subjective Mental Well-Being of School-Age Children – Educational and Prophylactic Challenges</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>2018-12-07</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Educational Studies Review</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_19</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>68</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Karmienie piersią w miejscach publicznych w opinii kobiet</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2018-07-20</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Olejnik A i wsp. Karm</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_21</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>70</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t xml:space="preserve">Charakterystyka i ocena właściwości psychometrycznych polskiej adaptacji Skali Poczucia Kompetencji Rodzicielskich (Parenting Sense of Competence Scale; PSOC-PL) w wersji dla matek. </t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Acta Universitatis Lodziensis, Folia Psychologica</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_23</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>71</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Orientacja seksualna kobiet a postawy wobec macierzyństwa = Women' sexual orientation and their attitudes towards motherhood</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Seksuologia Polska</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_24</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>73</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Polki wobec płodności i posiadania dzieci – doniesienie wstępne</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>2017-12-31</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Folia Psychologica</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_26</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>74</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Karolina Kossakowska</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3618-1918</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Orientacja seksualna kobiet a postawy wobec macierzyństwa</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>2017-11-21</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Seksuologia Polska / Polish Sexology</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Karolina_Kossakowska_27</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>82</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Agnieszka Marta Lipińska-Grobelny</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2770-1723</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Personnel selection methods and the employee's labour market.</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Organization &amp; Management Scientific Quarterly</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Agnieszka_Marta_Lipińska-Grobelny_4</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>83</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Agnieszka Marta Lipińska-Grobelny</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2770-1723</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Wielowymiarowa ocena skuteczności metod doboru personelu. Badania pilotażowe</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi (Human Resource Management)</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Agnieszka_Marta_Lipińska-Grobelny_5</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>85</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Agnieszka Marta Lipińska-Grobelny</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2770-1723</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Kapitał psychologiczny a zadowolenie z sytuacji zawodowej absolwentów psychologi</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Teraźniejszość - Człowiek - Edukacja</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Agnieszka_Marta_Lipińska-Grobelny_7</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>86</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Agnieszka Marta Lipińska-Grobelny</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2770-1723</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Klimat organizacyjny a odkładanie pracy na później</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Organizacja i Kierowanie</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Agnieszka_Marta_Lipińska-Grobelny_8</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>87</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Agnieszka Marta Lipińska-Grobelny</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2770-1723</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Motywacja do pracy wielopracowników - analiza porównawcza</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Polityka Społeczna</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Agnieszka_Marta_Lipińska-Grobelny_9</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>90</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Agnieszka Marta Lipińska-Grobelny</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2770-1723</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Zaangażowanie w pracę i przywiązanie do organizacji - analiza międzypokoleniowa i międzypłciowa.</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi (Human Resources Management)</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Agnieszka_Marta_Lipińska-Grobelny_12</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>91</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Agnieszka Marta Lipińska-Grobelny</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2770-1723</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t xml:space="preserve">Wielopraca i inne trendy obecne na rynku pracy. </t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Studia Humanistica Gedanensia</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Agnieszka_Marta_Lipińska-Grobelny_13</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>92</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Anna Lubrańska</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3880-0711</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Klimat organizacyjny a konflikty ról w perspektywie równowagi praca-życie</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Anna_Lubrańska_1</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>93</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Anna Lubrańska</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3880-0711</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Satysfakcja z pracy w kontekście szkoleń pracowników – doniesienie z badań</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Edukacja Dorosłych</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Anna_Lubrańska_2</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>94</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Anna Lubrańska</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3880-0711</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>Radzenie sobie ze stresem i z tremą przez młodych dorosłych w sytaucji występu scenicznego</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>Edukacja Dorosłych</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Anna_Lubrańska_3</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>95</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Anna Lubrańska</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3880-0711</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Intergenerational Differences in Organizational Commitment</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Przedsiębiorczość i Zarządzanie</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Anna_Lubrańska_4</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>96</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Anna Lubrańska</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3880-0711</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Klimat organizacyjny wobec zarządzania wiekiem</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Anna_Lubrańska_5</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" t="n">
+        <v>97</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Anna Lubrańska</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3880-0711</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>Satysfakcja z życia i z pracy w aspekcie uelastycznienia zatrudnienia</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Polityka Społeczna</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Anna_Lubrańska_6</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" t="n">
+        <v>98</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Anna Lubrańska</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3880-0711</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Radzenie sobie ze stresem i z tremą wśród studentów wybranych kierunków artystycznych – rola zasobów osobistych</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>Edukacja Dorosłych</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Anna_Lubrańska_7</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" t="n">
+        <v>140</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Janina Jolanta Ogińska-Bulik</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8868-407X</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Negatywne i pozytywne konsekwencje wtórnej ekspozycji na  	traumę wśród pielęgniarek</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>2021-07</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Sztuka Leczenia</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Janina_Jolanta_Ogińska-Bulik_3</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>142</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Janina Jolanta Ogińska-Bulik</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8868-407X</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>Osobowościowe wyznaczniki ryzyka uzależnienia od jedzenia u kobiet z zaburzeniami odżywiania</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>2021-04</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Serwis Informacyjny. Uzależnienia</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Janina_Jolanta_Ogińska-Bulik_5</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" t="n">
+        <v>145</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Janina Jolanta Ogińska-Bulik</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8868-407X</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Obciążenie pracą i przejawiana empatia a objawy wtórnego  stresu pourazowego u profesjonalistek pracujących z osobami po doświadczeniach  	przemocy</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Janina_Jolanta_Ogińska-Bulik_8</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" t="n">
+        <v>153</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Janina Jolanta Ogińska-Bulik</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8868-407X</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>ПОДВЕРЖЕННОСТЬ ТРАВМЕ И ЕЕ НЕГАТИВНЫЕ И ПОЗИТИВНЫЕ ПОСЛЕДСТВИЯ У ИНОСТРАННЫХ СТУДЕНТОВ, ОБУЧАЮЩИХСЯ В ПОЛЬШЕ</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>Студенческий вестник</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Janina_Jolanta_Ogińska-Bulik_16</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>155</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Janina Jolanta Ogińska-Bulik</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8868-407X</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>Koszt pomagania innym - zjawisko wtórnej traumy</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>NIEBIESKA LINIA Dwumiesięcznik poświęcony problematyce przemocy</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Janina_Jolanta_Ogińska-Bulik_18</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="n">
+        <v>156</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Janina Jolanta Ogińska-Bulik</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8868-407X</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>Negatywne i pozytywne zmiany potraumatyczne u kobiet, które doświadczyły przemocy domowej - rola poznawczego przetwarzania traumy = Negative and positive posttraumatic changes in women who have experienced domestic violence: the role of cognitive processing of trauma</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Janina_Jolanta_Ogińska-Bulik_19</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" t="n">
+        <v>157</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Janina Jolanta Ogińska-Bulik</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8868-407X</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>Negatywne skutki pracy związanej z pomaganiem osobom po doświadczeniach traumatycznych - zjawisko wtórnej traumatyzacji = Negative effects of work related to helping people after traumatic experiences - the phenomenon of secondary traumatization</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>Sztuka Leczenia</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Janina_Jolanta_Ogińska-Bulik_20</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" t="n">
+        <v>158</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Janina Jolanta Ogińska-Bulik</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8868-407X</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>Objawy stresu pourazowego i potraumatyczny wzrost u osób zmagających się z chorobami somatycznymi - rola zakłóceń w podstawowych przekonaniach = Symptoms of posttraumatic stress and posttraumatic growth in people struggling with somatic diseases: the role of disruptions in core beliefs</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Janina_Jolanta_Ogińska-Bulik_21</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" t="n">
+        <v>160</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Janina Jolanta Ogińska-Bulik</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8868-407X</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Pomaganie męczy. Negatywne konsekwencje stresu zawodowego terapeutów - zjawisko wtórnej traumatyzacji</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>Terapia Uzależnienia i Współuzależnienia</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Janina_Jolanta_Ogińska-Bulik_23</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" t="n">
+        <v>166</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Janina Jolanta Ogińska-Bulik</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8868-407X</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>Uzależnienie od jedzenia - znaczenie doświadczania traumy</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>ŚWIAT PROBLEMÓW</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Janina_Jolanta_Ogińska-Bulik_29</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" t="n">
+        <v>168</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>Janina Jolanta Ogińska-Bulik</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8868-407X</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>Bilans życiowy a potraumatyczny wzrost  u osób starszych zmagających się z przewlekłymi chorobami somatycznymi – mediacyjna rola prężności</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>Gerontologia Polska</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Janina_Jolanta_Ogińska-Bulik_31</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" t="n">
+        <v>170</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Janina Jolanta Ogińska-Bulik</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8868-407X</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>Experiencing traumatic events – consequences and measurement. Introduction</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>The Review of Psychology/ Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Janina_Jolanta_Ogińska-Bulik_33</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" t="n">
+        <v>171</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Anna Maria Paszkowska-Rogacz</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9426-4888</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>Zdolnośc adaptacji do kariery - wstępna weryfikacja koncepcji i metody pomiaru</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>2020-11</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>Psychologia Wychowawcza</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Anna_Maria_Paszkowska-Rogacz_1</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" t="n">
+        <v>172</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>Anna Maria Paszkowska-Rogacz</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9426-4888</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>Styl przywiązania a tolerancja niejednoznaczności w podejmowania decyzji zawodowych przez młodych dorosłych. Mediacyjny efekt poczucia bezpieczeństwa</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>2020-01</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Anna_Maria_Paszkowska-Rogacz_2</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" t="n">
+        <v>174</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>Anna Maria Paszkowska-Rogacz</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9426-4888</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>Percepcja postaw rodzicielskich przez młodzież a jej trudności w procesie podejmowania decyzji zawodowych ; Perception of parental attitudes by young people and their difficulties in the process of making vocational decisions</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
         <is>
           <t>Anna_Maria_Paszkowska-Rogacz_4</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" t="n">
+        <v>175</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>Anna Maria Paszkowska-Rogacz</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9426-4888</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>Sprawozdanie z 15. Europejskiego Kongresu Psychologii, 11-14 lipca 2017 roku, Amsterdam, Holandia</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr">
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
         <is>
           <t>Anna_Maria_Paszkowska-Rogacz_5</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" t="n">
+        <v>181</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>Patryk Adam Stecz</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8291-9103</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>Powrót do normalności? jak radzić sobie w kolejnym semestrze z ograniczeniami spowodowanymi rozprzestrzenianiem się COVID-19?</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>2020-10</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>AION. Akademicki Informator Osób Niepełnosprawnych</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Patryk_Adam_Stecz_6</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" t="n">
+        <v>183</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>Patryk Adam Stecz</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8291-9103</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>Jak rozmawiać z kimś, kto ma myśli samobójcze?</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>2019-10</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>AION. Akademicki Informator Osób Niepełnosprawnych</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Patryk_Adam_Stecz_8</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" t="n">
+        <v>187</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>Patryk Adam Stecz</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8291-9103</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>Sprawozdanie z 37 Konferencji Towarzystwa Badań nad Stresem i Lękiem (STAR) w Zagrzebiu – Chorwacja.</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Patryk_Adam_Stecz_12</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" t="n">
+        <v>188</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>Patryk Adam Stecz</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8291-9103</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>The future of Polish suicidology</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>Suicydologia</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Patryk_Adam_Stecz_13</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" t="n">
+        <v>206</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>Katarzyna Walęcka-Matyja</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8222-729X</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t xml:space="preserve">The role of family communication in shaping the quality of adult sibling interpersonal relationships and the opinions about the social world. </t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>2021-06-28</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Katarzyna_Walęcka-Matyja_3</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" t="n">
+        <v>208</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>Katarzyna Walęcka-Matyja</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8222-729X</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>Struktura rodziny młodych dorosłych a jakość ich bliskich związków interpersonalnych.</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>2021-01-24</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>Problemy Opiekuńczo-Wychowawcze</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Katarzyna_Walęcka-Matyja_5</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" t="n">
+        <v>212</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>Katarzyna Walęcka-Matyja</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8222-729X</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t xml:space="preserve">Polish version of the Affectionate Communication Index. Preliminary report. </t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>2020-07-12</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio. Porozumiewanie się, dialog, komunikacja. Ujęcie integralne</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Katarzyna_Walęcka-Matyja_9</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" t="n">
+        <v>213</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>Katarzyna Walęcka-Matyja</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8222-729X</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t xml:space="preserve">Familizm a orientacja wspólnotowa i materializm w okresie dorosłości. </t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>2020-05-08</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio. Miłość, małżeństwo, rodzina. Ujęcie interdyscyplinarne, 1, 241-259.</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Katarzyna_Walęcka-Matyja_10</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" t="n">
+        <v>214</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>Katarzyna Walęcka-Matyja</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8222-729X</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>Predykcyjna rola retrospektywnej oceny postaw rodzicielskich ojca a perfekcjonizm i samoocena kobiet w okresie wczesnej dorosłości</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>Psychiatria Polska</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Katarzyna_Walęcka-Matyja_11</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" t="n">
+        <v>216</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Katarzyna Walęcka-Matyja</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8222-729X</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>Psychologiczne predyktory zadowolenia z bliskiego związku interpersonalnego. Rola komunikacji emocjonalnej</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Katarzyna_Walęcka-Matyja_13</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" t="n">
+        <v>217</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Katarzyna Walęcka-Matyja</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8222-729X</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>Psychological predictors of satisfaction with a close interpersonal relationship. The role of emotional communication</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>2019-08-23</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Katarzyna_Walęcka-Matyja_14</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" t="n">
+        <v>218</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>Katarzyna Walęcka-Matyja</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8222-729X</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t xml:space="preserve">Job satisfaction and mental health among young adults – a role of a sibling relationship. </t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>2019-05-28</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Katarzyna_Walęcka-Matyja_15</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" t="n">
+        <v>219</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>Katarzyna Walęcka-Matyja</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8222-729X</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t xml:space="preserve">Loneliness and coping with stress in only children and persons with siblings in early adulthood. </t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>2019-05-28</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Katarzyna_Walęcka-Matyja_16</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" t="n">
+        <v>221</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>Katarzyna Walęcka-Matyja</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8222-729X</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
           <t xml:space="preserve">Personality and interpersonal sibling relationships in early adulthood – causal analysis. </t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>2018-12-17</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>K.Walęcka-Matyja (2018). Personality and interpersonal sibling relationships in early adulthood – causal analysis. Archives of Psychiatry and Psychotherapy, 4: 67–75. doi: 10.12740/APP/97227</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Katarzyna_Walęcka-Matyja_18</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" t="n">
+        <v>223</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>Katarzyna Walęcka-Matyja</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8222-729X</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>Relationships with siblings as a predictor of empathy and styles of sense of humor in early adulthood</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>Archives of Psychiatry and Psychotheraphy, 3, 43-51. doi: 10.12740/APP/76339</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Katarzyna_Walęcka-Matyja_20</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" t="n">
+        <v>245</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>Magdalena Maria Zadworna</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0585-019X</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>Bilans życiowy a potraumatyczny wzrost u osób starszych zmagających się z przewlekłymi chorobami somatycznymi - mediacyjna rola prężności = Life outcome and posttraumatic growth in the elderly struggling with chronic somatic diseases - the meditating role of resiliency</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>Gerontologia Polska</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Magdalena_Maria_Zadworna_10</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" t="n">
+        <v>249</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>Magdalena Maria Zadworna</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0585-019X</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>Psychological wellbeing in the teaching profession</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>2018-12-01</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>Edukacja Dorosłych</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Magdalena_Maria_Zadworna_14</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" t="n">
+        <v>251</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>Magdalena Maria Zadworna</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0585-019X</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>Developmental tasks' attainment in late adulthood - the construction of a new psychometric tool = Realizacja zadań rozwojowych w okresie późnej dorosłości - konstrukcja nowego narzędzia badawczego</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>Gerontologia Polska</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Magdalena_Maria_Zadworna_16</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" t="n">
+        <v>254</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>Marta Renata Znajmiecka</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4710-7871</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>Analysis of the relationship between psychological gender and risk perception style and attitudes towards safety in a group of women and men</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>nternational Journal of Occupational Safety and Ergonomics</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Marta_Renata_Znajmiecka_1</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" t="n">
+        <v>255</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>Marta Renata Znajmiecka</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4710-7871</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t>Analysis of the relationship between psychological gender and risk perception style and attitudes towards safety in a group of women and men.</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>International Journal of Occupational Safety and Ergonomics</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Marta_Renata_Znajmiecka_2</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" t="n">
+        <v>256</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>Marta Renata Znajmiecka</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4710-7871</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>Styl przywiązania a tolerancja niejednoznaczności w sytuacji podejmowania decyzji zawodowych przez młodych dorosłych. Mediacyjny efekt poczucia bezpieczeństwa</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Marta_Renata_Znajmiecka_3</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" t="n">
+        <v>257</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>Marta Renata Znajmiecka</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4710-7871</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>Styl przywiązania a tolerancja niejednoznaczności w sytuacji podejmowania decyzji zawodowych przez młodych dorosłych. Mediacyjny efekt poczucia bezpieczeństwa</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Marta_Renata_Znajmiecka_4</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" t="n">
+        <v>258</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>Marta Renata Znajmiecka</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4710-7871</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t>Work safety climate. Comparison of selected occupational groups</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>PLoS ONE</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Marta_Renata_Znajmiecka_5</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" t="n">
+        <v>259</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>Marta Renata Znajmiecka</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4710-7871</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>Analiza różnic w postawach wobec bezpieczeństwa w pracy w kontekście postrzeganego dystansu wobec zagrożenia.</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Marta_Renata_Znajmiecka_6</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" t="n">
+        <v>260</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>Marta Renata Znajmiecka</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4710-7871</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>Analiza związku między perspektywą postrzegania czasu a prokrastynacją akademicką</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>e-mentor</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Marta_Renata_Znajmiecka_7</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" t="n">
+        <v>261</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>Marta Renata Znajmiecka</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4710-7871</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>Kwestionariusz postaw wobec bezpieczeństwa (KPwB) – konstrukcja i charakterystyka psychometryczna</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>Zeszyty Naukowe Politechniki Łódzkiej Seria Organizacja i Zarządzanie</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Marta_Renata_Znajmiecka_8</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" t="n">
+        <v>262</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>Marta Renata Znajmiecka</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4710-7871</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
           <t>Właściwości psychometryczne skróconej wersji Kwestionariusza Klimatu Bezpieczeństwa-50 (KKB-50)</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>Zeszyty Naukowe Politechniki Łódzkiej Seria Organizacja i Zarządzanie</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Marta_Renata_Znajmiecka_9</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" t="n">
+        <v>263</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>Marta Renata Znajmiecka</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4710-7871</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
           <t>Podmiotowe wyznaczniki zachowań ryzykownych i agresywnych w grupie motocyklistów</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>Zeszyty Naukowe Politechniki Śląskiej Seria Organizacja i Zarządzanie</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>Marta_Renata_Znajmiecka_10</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" t="n">
+        <v>264</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>Marta Renata Znajmiecka</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4710-7871</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
           <t>Behaviour-Based Safety (BBS): program modyfikacji zachowań niebezpiecznych w przedsiębiorstwie</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>Bezpieczeństwo pracy – Nauka i Praktyka</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Marta_Renata_Znajmiecka_11</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" t="n">
+        <v>266</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>Marta Renata Znajmiecka</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4710-7871</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D103" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
           <t>Pracownicza ocena klimatu bezpieczeństwa pracy i jej znaczenie dla ZZL. Kooperacyjny zakres działań w obszarze ZZL i BHP</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Marta_Renata_Znajmiecka_13</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" t="n">
+        <v>267</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>Marta Renata Znajmiecka</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4710-7871</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
           <t>Rola i znaczenie diagnozy potrzeb szkoleniowych w kontekście szkoleń z zakresu bezpieczeństwa i higieny pracy</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>Organizacja i zarządzanie Zeszyty Naukowe Politechniki Łódzkiej</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Marta_Renata_Znajmiecka_14</t>
         </is>
